--- a/flows/SPTS_fund_flow_data.xlsx
+++ b/flows/SPTS_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3084"/>
+  <dimension ref="A1:B3092"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31275,6 +31275,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3085">
+      <c r="A3085" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3085" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3086">
+      <c r="A3086" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3086" t="n">
+        <v>-8.676513999999999</v>
+      </c>
+    </row>
+    <row r="3087">
+      <c r="A3087" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3087" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3088">
+      <c r="A3088" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3088" t="n">
+        <v>-14.426049</v>
+      </c>
+    </row>
+    <row r="3089">
+      <c r="A3089" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3089" t="n">
+        <v>-43.32582</v>
+      </c>
+    </row>
+    <row r="3090">
+      <c r="A3090" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3090" t="n">
+        <v>-11.552679</v>
+      </c>
+    </row>
+    <row r="3091">
+      <c r="A3091" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3091" t="n">
+        <v>-17.34492</v>
+      </c>
+    </row>
+    <row r="3092">
+      <c r="A3092" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3092" t="n">
+        <v>-20.252853</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
